--- a/ScotlandP.xlsx
+++ b/ScotlandP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Downloads\R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Downloads\ScotlandGraphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A92B64D-C55D-4159-B408-3026FA7CCDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC3BF5F-E829-467E-AD8E-A3F2E663A662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17760" yWindow="1110" windowWidth="21600" windowHeight="11295" xr2:uid="{603B14C4-1A55-4B9F-8C08-34099351149D}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{603B14C4-1A55-4B9F-8C08-34099351149D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,24 +121,24 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519C77A3-A927-4A36-A22C-047B8BFC275A}">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,25 +497,25 @@
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45156</v>
+        <v>45204</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>30</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -525,25 +525,25 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45146</v>
+        <v>45204</v>
       </c>
       <c r="B3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -553,22 +553,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45144</v>
+        <v>45183</v>
       </c>
       <c r="B4">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>18</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -581,22 +581,22 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45109</v>
+        <v>45182</v>
       </c>
       <c r="B5">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -609,25 +609,25 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45105</v>
+        <v>45173</v>
       </c>
       <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
         <v>30</v>
       </c>
-      <c r="C6">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>29</v>
-      </c>
       <c r="E6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <v>9</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -636,26 +636,26 @@
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>45092</v>
-      </c>
-      <c r="B7" s="8">
+      <c r="A7" s="1">
+        <v>45156</v>
+      </c>
+      <c r="B7">
         <v>30</v>
       </c>
-      <c r="C7" s="8">
-        <v>17</v>
-      </c>
-      <c r="D7" s="8">
-        <v>28</v>
-      </c>
-      <c r="E7" s="8">
-        <v>12</v>
-      </c>
-      <c r="F7" s="8">
-        <v>8</v>
-      </c>
-      <c r="G7" s="8">
-        <v>4</v>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -664,26 +664,26 @@
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>45091</v>
-      </c>
-      <c r="B8" s="8">
+      <c r="A8" s="1">
+        <v>45146</v>
+      </c>
+      <c r="B8">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8">
         <v>28</v>
       </c>
-      <c r="C8" s="8">
-        <v>18</v>
-      </c>
-      <c r="D8" s="8">
-        <v>28</v>
-      </c>
-      <c r="E8" s="8">
-        <v>13</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="E8">
         <v>11</v>
       </c>
-      <c r="G8" s="8">
-        <v>0</v>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -692,26 +692,26 @@
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>45083</v>
-      </c>
-      <c r="B9" s="8">
-        <v>25</v>
-      </c>
-      <c r="C9" s="8">
+      <c r="A9" s="1">
+        <v>45144</v>
+      </c>
+      <c r="B9">
+        <v>29</v>
+      </c>
+      <c r="C9">
         <v>18</v>
       </c>
-      <c r="D9" s="8">
-        <v>25</v>
-      </c>
-      <c r="E9" s="8">
-        <v>13</v>
-      </c>
-      <c r="F9" s="8">
-        <v>10</v>
-      </c>
-      <c r="G9" s="8">
-        <v>3</v>
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -720,25 +720,25 @@
       <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>45067</v>
-      </c>
-      <c r="B10" s="8">
-        <v>35</v>
-      </c>
-      <c r="C10" s="8">
-        <v>17</v>
-      </c>
-      <c r="D10" s="8">
-        <v>27</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="A10" s="1">
+        <v>45109</v>
+      </c>
+      <c r="B10">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
         <v>12</v>
       </c>
-      <c r="F10" s="8">
-        <v>5</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="G10">
         <v>2</v>
       </c>
       <c r="H10" s="8"/>
@@ -748,26 +748,26 @@
       <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>45049</v>
-      </c>
-      <c r="B11" s="8">
-        <v>32</v>
-      </c>
-      <c r="C11" s="8">
-        <v>19</v>
-      </c>
-      <c r="D11" s="8">
-        <v>26</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="A11" s="1">
+        <v>45105</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>29</v>
+      </c>
+      <c r="E11">
         <v>10</v>
       </c>
-      <c r="F11" s="8">
-        <v>7</v>
-      </c>
-      <c r="G11" s="8">
-        <v>3</v>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -777,25 +777,25 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>45048</v>
+        <v>45092</v>
       </c>
       <c r="B12" s="8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C12" s="8">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G12" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -805,25 +805,25 @@
     </row>
     <row r="13" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>45036</v>
+        <v>45091</v>
       </c>
       <c r="B13" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" s="8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G13" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -833,25 +833,25 @@
     </row>
     <row r="14" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>45019</v>
+        <v>45083</v>
       </c>
       <c r="B14" s="8">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C14" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E14" s="8">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F14" s="8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G14" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -861,25 +861,25 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>45017</v>
+        <v>45067</v>
       </c>
       <c r="B15" s="8">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C15" s="8">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" s="8">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E15" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" s="8">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G15" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -889,16 +889,16 @@
     </row>
     <row r="16" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>45016</v>
+        <v>45049</v>
       </c>
       <c r="B16" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" s="8">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E16" s="8">
         <v>10</v>
@@ -907,7 +907,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -917,25 +917,25 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>45015</v>
+        <v>45048</v>
       </c>
       <c r="B17" s="8">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C17" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="8">
         <v>27</v>
       </c>
       <c r="E17" s="8">
+        <v>13</v>
+      </c>
+      <c r="F17" s="8">
         <v>10</v>
       </c>
-      <c r="F17" s="8">
-        <v>6</v>
-      </c>
       <c r="G17" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -945,22 +945,22 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>44998</v>
+        <v>45036</v>
       </c>
       <c r="B18" s="8">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C18" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E18" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G18" s="8">
         <v>2</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>44995</v>
+        <v>45019</v>
       </c>
       <c r="B19" s="8">
         <v>32</v>
@@ -982,13 +982,13 @@
         <v>17</v>
       </c>
       <c r="D19" s="8">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E19" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F19" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" s="8">
         <v>0</v>
@@ -1001,22 +1001,22 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>44990</v>
+        <v>45017</v>
       </c>
       <c r="B20" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E20" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G20" s="8">
         <v>0</v>
@@ -1029,22 +1029,22 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>44974</v>
+        <v>45016</v>
       </c>
       <c r="B21" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21" s="8">
         <v>18</v>
       </c>
       <c r="D21" s="8">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E21" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F21" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G21" s="8">
         <v>0</v>
@@ -1057,25 +1057,25 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>44974</v>
+        <v>45015</v>
       </c>
       <c r="B22" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="8">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D22" s="8">
         <v>27</v>
       </c>
       <c r="E22" s="8">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F22" s="8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G22" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -1085,25 +1085,25 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>44972</v>
+        <v>44998</v>
       </c>
       <c r="B23" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C23" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="8">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E23" s="8">
         <v>11</v>
       </c>
       <c r="F23" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G23" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -1113,22 +1113,22 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>44964</v>
+        <v>44995</v>
       </c>
       <c r="B24" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="8">
         <v>17</v>
       </c>
       <c r="D24" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E24" s="8">
         <v>12</v>
       </c>
       <c r="F24" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G24" s="8">
         <v>0</v>
@@ -1141,22 +1141,22 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>44952</v>
+        <v>44990</v>
       </c>
       <c r="B25" s="8">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C25" s="8">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D25" s="8">
         <v>26</v>
       </c>
       <c r="E25" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G25" s="8">
         <v>0</v>
@@ -1169,19 +1169,19 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>44938</v>
+        <v>44974</v>
       </c>
       <c r="B26" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C26" s="8">
         <v>18</v>
       </c>
       <c r="D26" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E26" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F26" s="8">
         <v>8</v>
@@ -1197,25 +1197,25 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>44926</v>
+        <v>44974</v>
       </c>
       <c r="B27" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D27" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E27" s="8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F27" s="8">
         <v>9</v>
       </c>
       <c r="G27" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="8"/>
@@ -1225,25 +1225,25 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>44916</v>
+        <v>44972</v>
       </c>
       <c r="B28" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" s="8">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E28" s="8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F28" s="8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G28" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="8"/>
@@ -1253,22 +1253,22 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>44904</v>
+        <v>44964</v>
       </c>
       <c r="B29" s="8">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C29" s="8">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D29" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E29" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G29" s="8">
         <v>0</v>
@@ -1281,22 +1281,22 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>44900</v>
+        <v>44952</v>
       </c>
       <c r="B30" s="8">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C30" s="8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D30" s="8">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E30" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F30" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G30" s="8">
         <v>0</v>
@@ -1309,25 +1309,25 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>44906</v>
+        <v>44938</v>
       </c>
       <c r="B31" s="8">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C31" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D31" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F31" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G31" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="8"/>
@@ -1336,26 +1336,26 @@
       <c r="L31" s="9"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>44838</v>
-      </c>
-      <c r="B32" s="9">
-        <v>38</v>
-      </c>
-      <c r="C32" s="9">
-        <v>14</v>
-      </c>
-      <c r="D32" s="9">
-        <v>24</v>
-      </c>
-      <c r="E32" s="9">
+      <c r="A32" s="4">
+        <v>44926</v>
+      </c>
+      <c r="B32" s="8">
+        <v>33</v>
+      </c>
+      <c r="C32" s="8">
+        <v>15</v>
+      </c>
+      <c r="D32" s="8">
+        <v>26</v>
+      </c>
+      <c r="E32" s="8">
         <v>12</v>
       </c>
-      <c r="F32" s="9">
-        <v>8</v>
-      </c>
-      <c r="G32" s="9">
-        <v>0</v>
+      <c r="F32" s="8">
+        <v>9</v>
+      </c>
+      <c r="G32" s="8">
+        <v>2</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -1364,26 +1364,26 @@
       <c r="L32" s="8"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>44838</v>
-      </c>
-      <c r="B33" s="9">
+      <c r="A33" s="4">
+        <v>44916</v>
+      </c>
+      <c r="B33" s="8">
         <v>32</v>
       </c>
-      <c r="C33" s="9">
-        <v>19</v>
-      </c>
-      <c r="D33" s="9">
-        <v>26</v>
-      </c>
-      <c r="E33" s="9">
+      <c r="C33" s="8">
+        <v>18</v>
+      </c>
+      <c r="D33" s="8">
+        <v>24</v>
+      </c>
+      <c r="E33" s="8">
         <v>13</v>
       </c>
-      <c r="F33" s="9">
-        <v>8</v>
-      </c>
-      <c r="G33" s="9">
-        <v>2</v>
+      <c r="F33" s="8">
+        <v>10</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -1392,26 +1392,26 @@
       <c r="L33" s="8"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>44833</v>
-      </c>
-      <c r="B34" s="9">
-        <v>31</v>
-      </c>
-      <c r="C34" s="9">
-        <v>14</v>
-      </c>
-      <c r="D34" s="9">
-        <v>27</v>
-      </c>
-      <c r="E34" s="9">
-        <v>14</v>
-      </c>
-      <c r="F34" s="9">
-        <v>9</v>
-      </c>
-      <c r="G34" s="9">
-        <v>1</v>
+      <c r="A34" s="4">
+        <v>44904</v>
+      </c>
+      <c r="B34" s="8">
+        <v>40</v>
+      </c>
+      <c r="C34" s="8">
+        <v>13</v>
+      </c>
+      <c r="D34" s="8">
+        <v>24</v>
+      </c>
+      <c r="E34" s="8">
+        <v>11</v>
+      </c>
+      <c r="F34" s="8">
+        <v>6</v>
+      </c>
+      <c r="G34" s="8">
+        <v>0</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -1420,25 +1420,25 @@
       <c r="L34" s="8"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>44743</v>
-      </c>
-      <c r="B35" s="9">
-        <v>41</v>
-      </c>
-      <c r="C35" s="9">
-        <v>19</v>
-      </c>
-      <c r="D35" s="9">
-        <v>22</v>
-      </c>
-      <c r="E35" s="9">
-        <v>8</v>
-      </c>
-      <c r="F35" s="9">
-        <v>7</v>
-      </c>
-      <c r="G35" s="9">
+      <c r="A35" s="4">
+        <v>44900</v>
+      </c>
+      <c r="B35" s="8">
+        <v>43</v>
+      </c>
+      <c r="C35" s="8">
+        <v>14</v>
+      </c>
+      <c r="D35" s="8">
+        <v>21</v>
+      </c>
+      <c r="E35" s="8">
+        <v>13</v>
+      </c>
+      <c r="F35" s="8">
+        <v>6</v>
+      </c>
+      <c r="G35" s="8">
         <v>0</v>
       </c>
       <c r="H35" s="9"/>
@@ -1448,26 +1448,26 @@
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>44740</v>
-      </c>
-      <c r="B36" s="9">
-        <v>33</v>
-      </c>
-      <c r="C36" s="9">
-        <v>20</v>
-      </c>
-      <c r="D36" s="9">
-        <v>24</v>
-      </c>
-      <c r="E36" s="9">
-        <v>13</v>
-      </c>
-      <c r="F36" s="9">
-        <v>8</v>
-      </c>
-      <c r="G36" s="9">
-        <v>2</v>
+      <c r="A36" s="4">
+        <v>44906</v>
+      </c>
+      <c r="B36" s="8">
+        <v>37</v>
+      </c>
+      <c r="C36" s="8">
+        <v>17</v>
+      </c>
+      <c r="D36" s="8">
+        <v>26</v>
+      </c>
+      <c r="E36" s="8">
+        <v>9</v>
+      </c>
+      <c r="F36" s="8">
+        <v>7</v>
+      </c>
+      <c r="G36" s="8">
+        <v>4</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="8"/>
@@ -1476,26 +1476,26 @@
       <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>44704</v>
-      </c>
-      <c r="B37" s="8">
-        <v>39</v>
-      </c>
-      <c r="C37" s="8">
-        <v>18</v>
-      </c>
-      <c r="D37" s="8">
-        <v>21</v>
-      </c>
-      <c r="E37" s="8">
-        <v>10</v>
-      </c>
-      <c r="F37" s="8">
-        <v>8</v>
-      </c>
-      <c r="G37" s="8">
-        <v>2</v>
+      <c r="A37" s="2">
+        <v>44838</v>
+      </c>
+      <c r="B37" s="9">
+        <v>38</v>
+      </c>
+      <c r="C37" s="9">
+        <v>14</v>
+      </c>
+      <c r="D37" s="9">
+        <v>24</v>
+      </c>
+      <c r="E37" s="9">
+        <v>12</v>
+      </c>
+      <c r="F37" s="9">
+        <v>8</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="8"/>
@@ -1504,26 +1504,26 @@
       <c r="L37" s="7"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>44684</v>
-      </c>
-      <c r="B38" s="8">
-        <v>31</v>
-      </c>
-      <c r="C38" s="8">
-        <v>18</v>
-      </c>
-      <c r="D38" s="8">
-        <v>23</v>
-      </c>
-      <c r="E38" s="8">
-        <v>14</v>
-      </c>
-      <c r="F38" s="8">
-        <v>10</v>
-      </c>
-      <c r="G38" s="8">
-        <v>3</v>
+      <c r="A38" s="2">
+        <v>44838</v>
+      </c>
+      <c r="B38" s="9">
+        <v>32</v>
+      </c>
+      <c r="C38" s="9">
+        <v>19</v>
+      </c>
+      <c r="D38" s="9">
+        <v>26</v>
+      </c>
+      <c r="E38" s="9">
+        <v>13</v>
+      </c>
+      <c r="F38" s="9">
+        <v>8</v>
+      </c>
+      <c r="G38" s="9">
+        <v>2</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="8"/>
@@ -1532,26 +1532,26 @@
       <c r="L38" s="7"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>44680</v>
-      </c>
-      <c r="B39" s="8">
-        <v>36</v>
-      </c>
-      <c r="C39" s="8">
-        <v>20</v>
-      </c>
-      <c r="D39" s="8">
-        <v>22</v>
-      </c>
-      <c r="E39" s="8">
-        <v>10</v>
-      </c>
-      <c r="F39" s="8">
-        <v>7</v>
-      </c>
-      <c r="G39" s="8">
-        <v>0</v>
+      <c r="A39" s="2">
+        <v>44833</v>
+      </c>
+      <c r="B39" s="9">
+        <v>31</v>
+      </c>
+      <c r="C39" s="9">
+        <v>14</v>
+      </c>
+      <c r="D39" s="9">
+        <v>27</v>
+      </c>
+      <c r="E39" s="9">
+        <v>14</v>
+      </c>
+      <c r="F39" s="9">
+        <v>9</v>
+      </c>
+      <c r="G39" s="9">
+        <v>1</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="8"/>
@@ -1561,25 +1561,25 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>44651</v>
+        <v>44743</v>
       </c>
       <c r="B40" s="9">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C40" s="9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D40" s="9">
         <v>22</v>
       </c>
       <c r="E40" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F40" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G40" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="8"/>
@@ -1589,19 +1589,19 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>44648</v>
+        <v>44740</v>
       </c>
       <c r="B41" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" s="9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D41" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E41" s="9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F41" s="9">
         <v>8</v>
@@ -1616,25 +1616,25 @@
       <c r="L41" s="7"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>44636</v>
-      </c>
-      <c r="B42" s="7">
-        <v>34</v>
-      </c>
-      <c r="C42" s="7">
-        <v>20</v>
-      </c>
-      <c r="D42" s="7">
-        <v>22</v>
-      </c>
-      <c r="E42" s="7">
-        <v>13</v>
-      </c>
-      <c r="F42" s="7">
-        <v>8</v>
-      </c>
-      <c r="G42" s="7">
+      <c r="A42" s="4">
+        <v>44704</v>
+      </c>
+      <c r="B42" s="8">
+        <v>39</v>
+      </c>
+      <c r="C42" s="8">
+        <v>18</v>
+      </c>
+      <c r="D42" s="8">
+        <v>21</v>
+      </c>
+      <c r="E42" s="8">
+        <v>10</v>
+      </c>
+      <c r="F42" s="8">
+        <v>8</v>
+      </c>
+      <c r="G42" s="8">
         <v>2</v>
       </c>
       <c r="H42" s="7"/>
@@ -1644,26 +1644,26 @@
       <c r="L42" s="7"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>44620</v>
-      </c>
-      <c r="B43" s="7">
-        <v>34</v>
-      </c>
-      <c r="C43" s="7">
-        <v>21</v>
-      </c>
-      <c r="D43" s="7">
-        <v>20</v>
-      </c>
-      <c r="E43" s="7">
+      <c r="A43" s="4">
+        <v>44684</v>
+      </c>
+      <c r="B43" s="8">
+        <v>31</v>
+      </c>
+      <c r="C43" s="8">
+        <v>18</v>
+      </c>
+      <c r="D43" s="8">
+        <v>23</v>
+      </c>
+      <c r="E43" s="8">
         <v>14</v>
       </c>
-      <c r="F43" s="7">
-        <v>8</v>
-      </c>
-      <c r="G43" s="7">
-        <v>2</v>
+      <c r="F43" s="8">
+        <v>10</v>
+      </c>
+      <c r="G43" s="8">
+        <v>3</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="8"/>
@@ -1672,26 +1672,26 @@
       <c r="L43" s="7"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>44579</v>
-      </c>
-      <c r="B44" s="7">
-        <v>38</v>
-      </c>
-      <c r="C44" s="7">
-        <v>18</v>
-      </c>
-      <c r="D44" s="7">
+      <c r="A44" s="4">
+        <v>44680</v>
+      </c>
+      <c r="B44" s="8">
+        <v>36</v>
+      </c>
+      <c r="C44" s="8">
         <v>20</v>
       </c>
-      <c r="E44" s="7">
-        <v>12</v>
-      </c>
-      <c r="F44" s="7">
-        <v>9</v>
-      </c>
-      <c r="G44" s="7">
-        <v>2</v>
+      <c r="D44" s="8">
+        <v>22</v>
+      </c>
+      <c r="E44" s="8">
+        <v>10</v>
+      </c>
+      <c r="F44" s="8">
+        <v>7</v>
+      </c>
+      <c r="G44" s="8">
+        <v>0</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="8"/>
@@ -1700,26 +1700,26 @@
       <c r="L44" s="7"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>44529</v>
-      </c>
-      <c r="B45" s="7">
-        <v>43</v>
-      </c>
-      <c r="C45" s="7">
+      <c r="A45" s="2">
+        <v>44651</v>
+      </c>
+      <c r="B45" s="9">
+        <v>33</v>
+      </c>
+      <c r="C45" s="9">
         <v>20</v>
       </c>
-      <c r="D45" s="7">
-        <v>15</v>
-      </c>
-      <c r="E45" s="7">
-        <v>12</v>
-      </c>
-      <c r="F45" s="7">
-        <v>6</v>
-      </c>
-      <c r="G45" s="7">
-        <v>1</v>
+      <c r="D45" s="9">
+        <v>22</v>
+      </c>
+      <c r="E45" s="9">
+        <v>10</v>
+      </c>
+      <c r="F45" s="9">
+        <v>8</v>
+      </c>
+      <c r="G45" s="9">
+        <v>3</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="8"/>
@@ -1728,26 +1728,26 @@
       <c r="L45" s="7"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>44522</v>
-      </c>
-      <c r="B46" s="7">
-        <v>38</v>
-      </c>
-      <c r="C46" s="7">
+      <c r="A46" s="2">
+        <v>44648</v>
+      </c>
+      <c r="B46" s="9">
+        <v>34</v>
+      </c>
+      <c r="C46" s="9">
         <v>19</v>
       </c>
-      <c r="D46" s="7">
-        <v>19</v>
-      </c>
-      <c r="E46" s="7">
+      <c r="D46" s="9">
+        <v>23</v>
+      </c>
+      <c r="E46" s="9">
         <v>11</v>
       </c>
-      <c r="F46" s="7">
-        <v>7</v>
-      </c>
-      <c r="G46" s="7">
-        <v>1</v>
+      <c r="F46" s="9">
+        <v>8</v>
+      </c>
+      <c r="G46" s="9">
+        <v>2</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="8"/>
@@ -1757,25 +1757,25 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>44512</v>
+        <v>44636</v>
       </c>
       <c r="B47" s="7">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C47" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D47" s="7">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E47" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F47" s="7">
         <v>8</v>
       </c>
       <c r="G47" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="8"/>
@@ -1785,25 +1785,25 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>44497</v>
+        <v>44620</v>
       </c>
       <c r="B48" s="7">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C48" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D48" s="7">
         <v>20</v>
       </c>
       <c r="E48" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F48" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G48" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="8"/>
@@ -1813,91 +1813,91 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>44479</v>
+        <v>44579</v>
       </c>
       <c r="B49" s="7">
         <v>38</v>
       </c>
       <c r="C49" s="7">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D49" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E49" s="7">
+        <v>12</v>
+      </c>
+      <c r="F49" s="7">
         <v>9</v>
       </c>
-      <c r="F49" s="7">
-        <v>8</v>
-      </c>
       <c r="G49" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>44448</v>
+        <v>44529</v>
       </c>
       <c r="B50" s="7">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C50" s="7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D50" s="7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E50" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F50" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G50" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>44447</v>
+        <v>44522</v>
       </c>
       <c r="B51" s="7">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C51" s="7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D51" s="7">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E51" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F51" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G51" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>44371</v>
+        <v>44512</v>
       </c>
       <c r="B52" s="7">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C52" s="7">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D52" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E52" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F52" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G52" s="7">
         <v>0</v>
@@ -1905,24 +1905,139 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
+        <v>44497</v>
+      </c>
+      <c r="B53" s="7">
+        <v>38</v>
+      </c>
+      <c r="C53" s="7">
+        <v>22</v>
+      </c>
+      <c r="D53" s="7">
+        <v>20</v>
+      </c>
+      <c r="E53" s="7">
+        <v>11</v>
+      </c>
+      <c r="F53" s="7">
+        <v>7</v>
+      </c>
+      <c r="G53" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>44479</v>
+      </c>
+      <c r="B54" s="7">
+        <v>38</v>
+      </c>
+      <c r="C54" s="7">
+        <v>23</v>
+      </c>
+      <c r="D54" s="7">
+        <v>18</v>
+      </c>
+      <c r="E54" s="7">
+        <v>9</v>
+      </c>
+      <c r="F54" s="7">
+        <v>8</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>44448</v>
+      </c>
+      <c r="B55" s="7">
+        <v>36</v>
+      </c>
+      <c r="C55" s="7">
+        <v>23</v>
+      </c>
+      <c r="D55" s="7">
+        <v>18</v>
+      </c>
+      <c r="E55" s="7">
+        <v>13</v>
+      </c>
+      <c r="F55" s="7">
+        <v>7</v>
+      </c>
+      <c r="G55" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>44447</v>
+      </c>
+      <c r="B56" s="7">
+        <v>40</v>
+      </c>
+      <c r="C56" s="7">
+        <v>21</v>
+      </c>
+      <c r="D56" s="7">
+        <v>16</v>
+      </c>
+      <c r="E56" s="7">
+        <v>8</v>
+      </c>
+      <c r="F56" s="7">
+        <v>5</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>44371</v>
+      </c>
+      <c r="B57" s="7">
+        <v>38</v>
+      </c>
+      <c r="C57" s="7">
+        <v>23</v>
+      </c>
+      <c r="D57" s="7">
+        <v>17</v>
+      </c>
+      <c r="E57" s="7">
+        <v>9</v>
+      </c>
+      <c r="F57" s="7">
+        <v>6</v>
+      </c>
+      <c r="G57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <v>44322</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B58" s="7">
         <v>40.299999999999997</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C58" s="7">
         <v>23.5</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D58" s="7">
         <v>17.899999999999999</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E58" s="7">
         <v>8.1</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F58" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G58" s="7">
         <v>1.7</v>
       </c>
     </row>
